--- a/src/test/resources/TestData.xlsx
+++ b/src/test/resources/TestData.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28025"/>
   <workbookPr/>
-  <mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\TRACK QJSPIDERS\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\TRACK QJSPIDERS\eclipse-workspace\Selenium_A5\src\test\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{462D6EE8-B6DA-4B4C-BF03-DC9B18066B3F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D10771B-CCCB-49EB-8877-C8C82A01E453}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -17,7 +17,7 @@
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
-    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="15">
   <si>
     <t>url</t>
   </si>
@@ -55,13 +55,27 @@
   </si>
   <si>
     <t>ABCDEF</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/</t>
+  </si>
+  <si>
+    <t>firefox</t>
+  </si>
+  <si>
+    <t>jhgiukhlikhjlkjl</t>
+  </si>
+  <si>
+    <t>hbkjhklkjlkjklk</t>
+  </si>
+  <si>
+    <t>kphbkljjkjhbhvgv</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="0"/>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -373,64 +387,83 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B6"/>
+  <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="220" zoomScaleNormal="220" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="13.85546875"/>
-    <col min="2" max="2" customWidth="true" width="46.28515625"/>
+    <col min="1" max="1" width="13.85546875" customWidth="1"/>
+    <col min="2" max="2" width="46.28515625" customWidth="1"/>
+    <col min="3" max="3" width="46" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" t="s" s="0">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s" s="0">
+      <c r="B1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" t="s" s="0">
+      <c r="C1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
         <v>2</v>
       </c>
-      <c r="B2" t="s" s="0">
+      <c r="B2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" t="s" s="0">
+      <c r="C2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="0">
+      <c r="B3">
         <v>10</v>
       </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" t="s" s="0">
+      <c r="C3">
         <v>5</v>
       </c>
-      <c r="B4" t="s" s="0">
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" t="s" s="0">
+      <c r="C4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
         <v>7</v>
       </c>
-      <c r="B5" t="s" s="0">
+      <c r="B5" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="s" s="0">
+      <c r="C5" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
         <v>8</v>
       </c>
-      <c r="B6" t="s" s="0">
+      <c r="B6" t="s">
         <v>9</v>
+      </c>
+      <c r="C6" t="s">
+        <v>14</v>
       </c>
     </row>
   </sheetData>
